--- a/data/pca/factorExposure/factorExposure_2011-03-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.00794353035453765</v>
+        <v>-0.01321174630463287</v>
       </c>
       <c r="C2">
-        <v>-0.0002866633448156102</v>
+        <v>0.007784789236637283</v>
       </c>
       <c r="D2">
-        <v>-0.04164194329664996</v>
+        <v>0.009834071813618166</v>
       </c>
       <c r="E2">
-        <v>0.006453357940166789</v>
+        <v>-0.004616895467393333</v>
       </c>
       <c r="F2">
-        <v>-0.003627403486600813</v>
+        <v>-0.0306656944568581</v>
       </c>
       <c r="G2">
-        <v>-0.01255009288640195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.003196685454001578</v>
+      </c>
+      <c r="H2">
+        <v>0.00811917292334388</v>
+      </c>
+      <c r="I2">
+        <v>0.001414642406929443</v>
+      </c>
+      <c r="J2">
+        <v>0.03009850610323997</v>
+      </c>
+      <c r="K2">
+        <v>0.06319013901066901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.105631933009738</v>
+        <v>-0.117538310055556</v>
       </c>
       <c r="C4">
-        <v>-0.02207833541662738</v>
+        <v>0.05383690511525601</v>
       </c>
       <c r="D4">
-        <v>-0.05182953383305873</v>
+        <v>-0.002275983757482192</v>
       </c>
       <c r="E4">
-        <v>0.0603656359289302</v>
+        <v>0.002241698576344449</v>
       </c>
       <c r="F4">
-        <v>0.03406103809648921</v>
+        <v>-0.02130134849490302</v>
       </c>
       <c r="G4">
-        <v>-0.02609266322696643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.06685263071653033</v>
+      </c>
+      <c r="H4">
+        <v>0.1313563290044835</v>
+      </c>
+      <c r="I4">
+        <v>0.08192360487635078</v>
+      </c>
+      <c r="J4">
+        <v>-0.02745937333433504</v>
+      </c>
+      <c r="K4">
+        <v>-0.01392671092325811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1291653678575014</v>
+        <v>-0.1240418532132958</v>
       </c>
       <c r="C6">
-        <v>-0.02475961927210493</v>
+        <v>0.005767756118947213</v>
       </c>
       <c r="D6">
-        <v>-0.01138280179399466</v>
+        <v>0.005588890811164167</v>
       </c>
       <c r="E6">
-        <v>0.01361192560693756</v>
+        <v>0.03244803240307142</v>
       </c>
       <c r="F6">
-        <v>-0.170605012502694</v>
+        <v>0.01461985917746213</v>
       </c>
       <c r="G6">
-        <v>0.133555774215622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.06040688809159991</v>
+      </c>
+      <c r="H6">
+        <v>0.04265942134462981</v>
+      </c>
+      <c r="I6">
+        <v>-0.05627184187358476</v>
+      </c>
+      <c r="J6">
+        <v>-0.2758016286168914</v>
+      </c>
+      <c r="K6">
+        <v>-0.2892224472420456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.0892292163650967</v>
+        <v>-0.08034990458014581</v>
       </c>
       <c r="C7">
-        <v>-0.03695010861478562</v>
+        <v>0.05923308468458804</v>
       </c>
       <c r="D7">
-        <v>-0.04662443651820212</v>
+        <v>0.02649244365088236</v>
       </c>
       <c r="E7">
-        <v>0.0226873523536394</v>
+        <v>0.0004667315759177383</v>
       </c>
       <c r="F7">
-        <v>-0.02104741389651975</v>
+        <v>-0.043711990495678</v>
       </c>
       <c r="G7">
-        <v>-0.01369316125128215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0137276153396618</v>
+      </c>
+      <c r="H7">
+        <v>0.03960868005264754</v>
+      </c>
+      <c r="I7">
+        <v>0.025860300792673</v>
+      </c>
+      <c r="J7">
+        <v>0.01467341154973728</v>
+      </c>
+      <c r="K7">
+        <v>0.02830269241322365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04245469125752688</v>
+        <v>-0.05311430617907164</v>
       </c>
       <c r="C8">
-        <v>0.03430615226106189</v>
+        <v>0.01423574983430631</v>
       </c>
       <c r="D8">
-        <v>-0.08109089044688278</v>
+        <v>0.01596394766229923</v>
       </c>
       <c r="E8">
-        <v>0.09027602780683368</v>
+        <v>-0.00245215837394641</v>
       </c>
       <c r="F8">
-        <v>0.002584432891288896</v>
+        <v>-0.008996315020318535</v>
       </c>
       <c r="G8">
-        <v>-0.1413308283144418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.08357748542267557</v>
+      </c>
+      <c r="H8">
+        <v>0.1233236444489514</v>
+      </c>
+      <c r="I8">
+        <v>0.02392614587348171</v>
+      </c>
+      <c r="J8">
+        <v>-0.03285983942748976</v>
+      </c>
+      <c r="K8">
+        <v>-0.01841951824508057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.09425625019664474</v>
+        <v>-0.08966700212322569</v>
       </c>
       <c r="C9">
-        <v>-0.03601275267237513</v>
+        <v>0.05321563129063471</v>
       </c>
       <c r="D9">
-        <v>-0.03977567135461308</v>
+        <v>0.008248441439539008</v>
       </c>
       <c r="E9">
-        <v>0.04742643466990651</v>
+        <v>-0.009081942057335706</v>
       </c>
       <c r="F9">
-        <v>0.01348191275405481</v>
+        <v>-0.01994823449142309</v>
       </c>
       <c r="G9">
-        <v>-0.07528830446826401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05654767487613201</v>
+      </c>
+      <c r="H9">
+        <v>0.1146094594944971</v>
+      </c>
+      <c r="I9">
+        <v>0.03116550791717711</v>
+      </c>
+      <c r="J9">
+        <v>-0.002999433754020616</v>
+      </c>
+      <c r="K9">
+        <v>-0.009471409078073027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03637210638768922</v>
+        <v>-0.08506328334711882</v>
       </c>
       <c r="C10">
-        <v>0.1653527538982399</v>
+        <v>-0.1793973034034034</v>
       </c>
       <c r="D10">
-        <v>-0.08450104497011156</v>
+        <v>-0.02554841587725376</v>
       </c>
       <c r="E10">
-        <v>0.02150063172419531</v>
+        <v>-0.005036271227663461</v>
       </c>
       <c r="F10">
-        <v>-0.03017075731988823</v>
+        <v>-0.06263625121802793</v>
       </c>
       <c r="G10">
-        <v>0.004679747667471069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.006119390562682072</v>
+      </c>
+      <c r="H10">
+        <v>-0.007831697622990609</v>
+      </c>
+      <c r="I10">
+        <v>0.01814593566979939</v>
+      </c>
+      <c r="J10">
+        <v>-0.01332823796740017</v>
+      </c>
+      <c r="K10">
+        <v>-0.02896973754846322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07674892385294646</v>
+        <v>-0.08042566614229725</v>
       </c>
       <c r="C11">
-        <v>-0.06131271373373066</v>
+        <v>0.05889884550519112</v>
       </c>
       <c r="D11">
-        <v>-0.01472735898768433</v>
+        <v>0.01757716140704436</v>
       </c>
       <c r="E11">
-        <v>-0.01017440782072026</v>
+        <v>-0.02653631374313529</v>
       </c>
       <c r="F11">
-        <v>-0.006780241256653724</v>
+        <v>0.007731311211351867</v>
       </c>
       <c r="G11">
-        <v>-0.1632219324122156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.05341907846235167</v>
+      </c>
+      <c r="H11">
+        <v>0.1247476164058464</v>
+      </c>
+      <c r="I11">
+        <v>-0.03009486326594014</v>
+      </c>
+      <c r="J11">
+        <v>0.06106275936912638</v>
+      </c>
+      <c r="K11">
+        <v>0.05208862260610617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07217647933704249</v>
+        <v>-0.08157009291225678</v>
       </c>
       <c r="C12">
-        <v>-0.04285855680726496</v>
+        <v>0.06669312384840211</v>
       </c>
       <c r="D12">
-        <v>-0.01187854246459974</v>
+        <v>0.02818244252771509</v>
       </c>
       <c r="E12">
-        <v>0.03185004511778117</v>
+        <v>-0.05109047458903301</v>
       </c>
       <c r="F12">
-        <v>-0.01704126067739932</v>
+        <v>-0.001006885239111517</v>
       </c>
       <c r="G12">
-        <v>-0.1473366271829048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.06811435928895695</v>
+      </c>
+      <c r="H12">
+        <v>0.1165968108155085</v>
+      </c>
+      <c r="I12">
+        <v>-0.04810866061708154</v>
+      </c>
+      <c r="J12">
+        <v>0.0428032345031459</v>
+      </c>
+      <c r="K12">
+        <v>0.04635569796854387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06249122575203092</v>
+        <v>-0.04133246234859892</v>
       </c>
       <c r="C13">
-        <v>-0.003914603361018271</v>
+        <v>0.02575971845630939</v>
       </c>
       <c r="D13">
-        <v>-0.01933267544170088</v>
+        <v>0.015623817824219</v>
       </c>
       <c r="E13">
-        <v>0.02039112203842827</v>
+        <v>0.01595873883457416</v>
       </c>
       <c r="F13">
-        <v>0.04709249870592139</v>
+        <v>-0.01828269303019928</v>
       </c>
       <c r="G13">
-        <v>-0.05887309482627159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.04583953954020224</v>
+      </c>
+      <c r="H13">
+        <v>0.05198215679825204</v>
+      </c>
+      <c r="I13">
+        <v>0.01906584634691361</v>
+      </c>
+      <c r="J13">
+        <v>-0.05884220917549771</v>
+      </c>
+      <c r="K13">
+        <v>-0.03075601798684075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05138506594128184</v>
+        <v>-0.04002697911350581</v>
       </c>
       <c r="C14">
-        <v>-0.006765584573871958</v>
+        <v>0.01093687883253773</v>
       </c>
       <c r="D14">
-        <v>-0.05653757214483332</v>
+        <v>-0.0138839776263899</v>
       </c>
       <c r="E14">
-        <v>0.02658095822470468</v>
+        <v>-0.01612474459153627</v>
       </c>
       <c r="F14">
-        <v>0.0156042774590095</v>
+        <v>-0.006631675199365223</v>
       </c>
       <c r="G14">
-        <v>-0.04594828679276627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04157752506614144</v>
+      </c>
+      <c r="H14">
+        <v>0.04420109470307003</v>
+      </c>
+      <c r="I14">
+        <v>0.0708111595108895</v>
+      </c>
+      <c r="J14">
+        <v>0.009842705131340768</v>
+      </c>
+      <c r="K14">
+        <v>-0.06742113072810112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03662198683586405</v>
+        <v>-0.02322110469034867</v>
       </c>
       <c r="C15">
-        <v>0.01088865961400545</v>
+        <v>0.004571405758993863</v>
       </c>
       <c r="D15">
-        <v>-0.01968761926894091</v>
+        <v>0.007269507353152302</v>
       </c>
       <c r="E15">
-        <v>0.002343741432671393</v>
+        <v>0.03041113582158493</v>
       </c>
       <c r="F15">
-        <v>0.005631330135793331</v>
+        <v>-0.02166076519135097</v>
       </c>
       <c r="G15">
-        <v>-0.01876655243769252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01125773899844036</v>
+      </c>
+      <c r="H15">
+        <v>0.005090422815398704</v>
+      </c>
+      <c r="I15">
+        <v>0.02299311051753288</v>
+      </c>
+      <c r="J15">
+        <v>-0.01902967031186461</v>
+      </c>
+      <c r="K15">
+        <v>-0.04802364633491322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.08023859060926467</v>
+        <v>-0.08638177344209401</v>
       </c>
       <c r="C16">
-        <v>-0.07040907527788912</v>
+        <v>0.06784669672763352</v>
       </c>
       <c r="D16">
-        <v>-0.02372498765056312</v>
+        <v>0.02389469771850731</v>
       </c>
       <c r="E16">
-        <v>0.0293251347435592</v>
+        <v>-0.02964261666381765</v>
       </c>
       <c r="F16">
-        <v>0.03711009622588494</v>
+        <v>0.003307014757569901</v>
       </c>
       <c r="G16">
-        <v>-0.1242182606091307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.07904296793164992</v>
+      </c>
+      <c r="H16">
+        <v>0.1146890956435583</v>
+      </c>
+      <c r="I16">
+        <v>-0.04919028858067594</v>
+      </c>
+      <c r="J16">
+        <v>0.08735647480603374</v>
+      </c>
+      <c r="K16">
+        <v>0.04237755802899656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05185214849573942</v>
+        <v>-0.05072938183245512</v>
       </c>
       <c r="C20">
-        <v>-0.02236639587229097</v>
+        <v>0.03536550980068411</v>
       </c>
       <c r="D20">
-        <v>-0.01874936013886538</v>
+        <v>-0.01269688429419014</v>
       </c>
       <c r="E20">
-        <v>0.02102589019620712</v>
+        <v>0.009671082315528505</v>
       </c>
       <c r="F20">
-        <v>-0.001171773813452476</v>
+        <v>-0.01373938617017358</v>
       </c>
       <c r="G20">
-        <v>-0.1131674373306881</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03563676675319501</v>
+      </c>
+      <c r="H20">
+        <v>0.054745493580701</v>
+      </c>
+      <c r="I20">
+        <v>0.02500448185784523</v>
+      </c>
+      <c r="J20">
+        <v>0.005302533264718176</v>
+      </c>
+      <c r="K20">
+        <v>-0.0330610946400063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02604288631181647</v>
+        <v>-0.02981998133903596</v>
       </c>
       <c r="C21">
-        <v>-0.04016404796075911</v>
+        <v>0.01255780021791501</v>
       </c>
       <c r="D21">
-        <v>-0.001815507649693697</v>
+        <v>-0.03133397993379992</v>
       </c>
       <c r="E21">
-        <v>0.01875077399571856</v>
+        <v>0.006533670996319733</v>
       </c>
       <c r="F21">
-        <v>-0.07155584895352696</v>
+        <v>0.0149317536703215</v>
       </c>
       <c r="G21">
-        <v>0.09426509935269829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03612331012287652</v>
+      </c>
+      <c r="H21">
+        <v>0.0677756506633435</v>
+      </c>
+      <c r="I21">
+        <v>0.04506088319448617</v>
+      </c>
+      <c r="J21">
+        <v>-0.06590219663742967</v>
+      </c>
+      <c r="K21">
+        <v>0.007221025554526307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04236564735605776</v>
+        <v>-0.03545980448800042</v>
       </c>
       <c r="C22">
-        <v>-0.01380743234903385</v>
+        <v>-0.001748889365453181</v>
       </c>
       <c r="D22">
-        <v>0.01655400863826255</v>
+        <v>0.08652105783853946</v>
       </c>
       <c r="E22">
-        <v>0.5493939664210199</v>
+        <v>0.5858999766001161</v>
       </c>
       <c r="F22">
-        <v>0.1691912770442069</v>
+        <v>-0.2633153580045775</v>
       </c>
       <c r="G22">
-        <v>0.3121121797210789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1417688109326556</v>
+      </c>
+      <c r="H22">
+        <v>-0.1164828044981897</v>
+      </c>
+      <c r="I22">
+        <v>-0.08224854241737455</v>
+      </c>
+      <c r="J22">
+        <v>0.04608454386740004</v>
+      </c>
+      <c r="K22">
+        <v>0.05024591002184222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04247806005908088</v>
+        <v>-0.03566328802554943</v>
       </c>
       <c r="C23">
-        <v>-0.01428008872859605</v>
+        <v>-0.001309569758645511</v>
       </c>
       <c r="D23">
-        <v>0.0148253889893386</v>
+        <v>0.08764780249599945</v>
       </c>
       <c r="E23">
-        <v>0.5483959656514108</v>
+        <v>0.5879742878980848</v>
       </c>
       <c r="F23">
-        <v>0.16965274956866</v>
+        <v>-0.2639936981904013</v>
       </c>
       <c r="G23">
-        <v>0.3128725612814988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1425172870138855</v>
+      </c>
+      <c r="H23">
+        <v>-0.1127192564433187</v>
+      </c>
+      <c r="I23">
+        <v>-0.08195767105699545</v>
+      </c>
+      <c r="J23">
+        <v>0.04725932018286708</v>
+      </c>
+      <c r="K23">
+        <v>0.04608286700733334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08382954202000646</v>
+        <v>-0.08819740651477881</v>
       </c>
       <c r="C24">
-        <v>-0.04987876101358273</v>
+        <v>0.06006132294817086</v>
       </c>
       <c r="D24">
-        <v>-0.02887205392206887</v>
+        <v>0.009677936499013348</v>
       </c>
       <c r="E24">
-        <v>0.03232675591489687</v>
+        <v>-0.0255436730736687</v>
       </c>
       <c r="F24">
-        <v>-0.008311494923425367</v>
+        <v>-0.004074605539229662</v>
       </c>
       <c r="G24">
-        <v>-0.1246263636605942</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.06336238831903775</v>
+      </c>
+      <c r="H24">
+        <v>0.1150308526445455</v>
+      </c>
+      <c r="I24">
+        <v>-0.06697704648672052</v>
+      </c>
+      <c r="J24">
+        <v>0.08376114794133754</v>
+      </c>
+      <c r="K24">
+        <v>0.036583737815272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07583903715642071</v>
+        <v>-0.0901342683622755</v>
       </c>
       <c r="C25">
-        <v>-0.02166522117277454</v>
+        <v>0.04191469502724949</v>
       </c>
       <c r="D25">
-        <v>-0.02819172759207833</v>
+        <v>0.02031875191716479</v>
       </c>
       <c r="E25">
-        <v>0.02789931557781973</v>
+        <v>-0.05602640150399946</v>
       </c>
       <c r="F25">
-        <v>-0.01553707072389685</v>
+        <v>-0.00297661330226401</v>
       </c>
       <c r="G25">
-        <v>-0.1156394958831484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0772341511999389</v>
+      </c>
+      <c r="H25">
+        <v>0.09758659540011973</v>
+      </c>
+      <c r="I25">
+        <v>-0.02433904444599023</v>
+      </c>
+      <c r="J25">
+        <v>0.06388656626071944</v>
+      </c>
+      <c r="K25">
+        <v>0.03628214370450076</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05090176621983276</v>
+        <v>-0.04188234619608448</v>
       </c>
       <c r="C26">
-        <v>-0.02734621263160976</v>
+        <v>-0.006900916339655479</v>
       </c>
       <c r="D26">
-        <v>-0.03506828743064834</v>
+        <v>-0.02079438916329424</v>
       </c>
       <c r="E26">
-        <v>0.0104487535832949</v>
+        <v>0.01679009466945793</v>
       </c>
       <c r="F26">
-        <v>0.01496277277694661</v>
+        <v>0.01008640157532542</v>
       </c>
       <c r="G26">
-        <v>-0.06090430852501727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03370600185110794</v>
+      </c>
+      <c r="H26">
+        <v>0.03347976543480431</v>
+      </c>
+      <c r="I26">
+        <v>0.02467527330330904</v>
+      </c>
+      <c r="J26">
+        <v>0.01794885337414142</v>
+      </c>
+      <c r="K26">
+        <v>-0.06959210546916704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06029474634771426</v>
+        <v>-0.09639464057657109</v>
       </c>
       <c r="C28">
-        <v>0.3027044715775554</v>
+        <v>-0.31860844029058</v>
       </c>
       <c r="D28">
-        <v>-0.03562563889482617</v>
+        <v>0.01665252673818536</v>
       </c>
       <c r="E28">
-        <v>-0.01817075524939248</v>
+        <v>-0.02205195273102134</v>
       </c>
       <c r="F28">
-        <v>-0.05066432284034392</v>
+        <v>-0.004691859819360471</v>
       </c>
       <c r="G28">
-        <v>0.02355549187257352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02538389463466339</v>
+      </c>
+      <c r="H28">
+        <v>0.02146289957792939</v>
+      </c>
+      <c r="I28">
+        <v>-0.01362415209240857</v>
+      </c>
+      <c r="J28">
+        <v>-0.01932895471825893</v>
+      </c>
+      <c r="K28">
+        <v>0.01411622954155367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05869527019322671</v>
+        <v>-0.03855291555960144</v>
       </c>
       <c r="C29">
-        <v>-0.002251658028135197</v>
+        <v>0.008782337443901408</v>
       </c>
       <c r="D29">
-        <v>-0.032366152873113</v>
+        <v>4.981426669881301e-05</v>
       </c>
       <c r="E29">
-        <v>0.04131552901718739</v>
+        <v>-0.02137803978662374</v>
       </c>
       <c r="F29">
-        <v>0.02728896502207177</v>
+        <v>-0.01960128530104307</v>
       </c>
       <c r="G29">
-        <v>-0.04232145930676818</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.07812196427295141</v>
+      </c>
+      <c r="H29">
+        <v>0.04477650333261872</v>
+      </c>
+      <c r="I29">
+        <v>0.04037234575834631</v>
+      </c>
+      <c r="J29">
+        <v>0.015920992946855</v>
+      </c>
+      <c r="K29">
+        <v>-0.07840264169960341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1138610143468267</v>
+        <v>-0.1091936341590582</v>
       </c>
       <c r="C30">
-        <v>0.02598798488368759</v>
+        <v>0.07338844241943453</v>
       </c>
       <c r="D30">
-        <v>-0.066279983758501</v>
+        <v>0.04592639170198523</v>
       </c>
       <c r="E30">
-        <v>0.2180878253280681</v>
+        <v>-0.006783587399076434</v>
       </c>
       <c r="F30">
-        <v>-0.08604062036939213</v>
+        <v>0.01986335999571692</v>
       </c>
       <c r="G30">
-        <v>-0.1462060406424105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.1696377451504375</v>
+      </c>
+      <c r="H30">
+        <v>0.1636332062610476</v>
+      </c>
+      <c r="I30">
+        <v>-0.1884441079515836</v>
+      </c>
+      <c r="J30">
+        <v>-0.1524718410623451</v>
+      </c>
+      <c r="K30">
+        <v>0.111462578469895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05782384849089355</v>
+        <v>-0.03809082852403724</v>
       </c>
       <c r="C31">
-        <v>-0.018155881025506</v>
+        <v>0.02617762958653792</v>
       </c>
       <c r="D31">
-        <v>0.008506160161348305</v>
+        <v>9.140965516895321e-06</v>
       </c>
       <c r="E31">
-        <v>0.004132269442720038</v>
+        <v>0.004560986147005182</v>
       </c>
       <c r="F31">
-        <v>0.04099173743202048</v>
+        <v>-0.0005963819982309318</v>
       </c>
       <c r="G31">
-        <v>-0.009186022140083541</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.00953737431525643</v>
+      </c>
+      <c r="H31">
+        <v>0.02049541986428318</v>
+      </c>
+      <c r="I31">
+        <v>0.02857850539994154</v>
+      </c>
+      <c r="J31">
+        <v>0.04049572555555434</v>
+      </c>
+      <c r="K31">
+        <v>-0.0604013762615572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.039351212864185</v>
+        <v>-0.05573790901040906</v>
       </c>
       <c r="C32">
-        <v>0.0217617039439168</v>
+        <v>0.004721803382844448</v>
       </c>
       <c r="D32">
-        <v>-0.008443458463229759</v>
+        <v>-0.01708962493540934</v>
       </c>
       <c r="E32">
-        <v>0.08253832045847426</v>
+        <v>-0.02516200164615287</v>
       </c>
       <c r="F32">
-        <v>0.1350754368253494</v>
+        <v>0.05209682061346345</v>
       </c>
       <c r="G32">
-        <v>-0.05597645844415745</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02220299901189058</v>
+      </c>
+      <c r="H32">
+        <v>0.03896872847605815</v>
+      </c>
+      <c r="I32">
+        <v>-0.006782393817314711</v>
+      </c>
+      <c r="J32">
+        <v>0.003861925348212626</v>
+      </c>
+      <c r="K32">
+        <v>-0.004180560289204308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1112685987606715</v>
+        <v>-0.1040301818800397</v>
       </c>
       <c r="C33">
-        <v>-0.01321541639824418</v>
+        <v>0.05232375965098127</v>
       </c>
       <c r="D33">
-        <v>0.008210509889586945</v>
+        <v>0.06874818748286482</v>
       </c>
       <c r="E33">
-        <v>0.0117641599537901</v>
+        <v>-0.0278139481445433</v>
       </c>
       <c r="F33">
-        <v>0.02482990393135544</v>
+        <v>0.001783770539069557</v>
       </c>
       <c r="G33">
-        <v>-0.07224621926185253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02603476746078124</v>
+      </c>
+      <c r="H33">
+        <v>0.0530338097775629</v>
+      </c>
+      <c r="I33">
+        <v>0.006525264622698238</v>
+      </c>
+      <c r="J33">
+        <v>0.02540677032034205</v>
+      </c>
+      <c r="K33">
+        <v>0.001738150682224228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06741828842968547</v>
+        <v>-0.07456376569701516</v>
       </c>
       <c r="C34">
-        <v>-0.0453046131009497</v>
+        <v>0.05233887650099459</v>
       </c>
       <c r="D34">
-        <v>-0.01681840784025127</v>
+        <v>0.01560844831222455</v>
       </c>
       <c r="E34">
-        <v>0.009644494467994485</v>
+        <v>-0.02917856355598678</v>
       </c>
       <c r="F34">
-        <v>0.02307008025919397</v>
+        <v>0.0005377874685653442</v>
       </c>
       <c r="G34">
-        <v>-0.09734450406549103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.06906275059149479</v>
+      </c>
+      <c r="H34">
+        <v>0.1071767694079784</v>
+      </c>
+      <c r="I34">
+        <v>-0.02630115311254103</v>
+      </c>
+      <c r="J34">
+        <v>0.06633498308367858</v>
+      </c>
+      <c r="K34">
+        <v>0.03721651051178276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04294282664196392</v>
+        <v>-0.0193922982984275</v>
       </c>
       <c r="C35">
-        <v>-0.01101073504261497</v>
+        <v>0.01230045486290548</v>
       </c>
       <c r="D35">
-        <v>0.0118526409376186</v>
+        <v>0.004217062970222146</v>
       </c>
       <c r="E35">
-        <v>0.009954920374158941</v>
+        <v>-0.006872189775622042</v>
       </c>
       <c r="F35">
-        <v>-0.04367344595136721</v>
+        <v>-0.003779933244021253</v>
       </c>
       <c r="G35">
-        <v>-0.0414742530733062</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05401093196771879</v>
+      </c>
+      <c r="H35">
+        <v>0.02274421344771972</v>
+      </c>
+      <c r="I35">
+        <v>0.03933737094207992</v>
+      </c>
+      <c r="J35">
+        <v>-0.005945787662737374</v>
+      </c>
+      <c r="K35">
+        <v>-0.0009267175631491755</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03884167696042071</v>
+        <v>-0.03227521245190512</v>
       </c>
       <c r="C36">
-        <v>-0.003104172874418031</v>
+        <v>0.007074960988289187</v>
       </c>
       <c r="D36">
-        <v>-0.02066975196137759</v>
+        <v>0.003789233289963675</v>
       </c>
       <c r="E36">
-        <v>0.03753492267061978</v>
+        <v>0.009734701233174152</v>
       </c>
       <c r="F36">
-        <v>0.004715405501792939</v>
+        <v>0.004768604584966741</v>
       </c>
       <c r="G36">
-        <v>-0.05265213339812872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.03673315355950869</v>
+      </c>
+      <c r="H36">
+        <v>0.05500291080982145</v>
+      </c>
+      <c r="I36">
+        <v>0.006266711631369914</v>
+      </c>
+      <c r="J36">
+        <v>0.02599219393426603</v>
+      </c>
+      <c r="K36">
+        <v>-0.04931335233899688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05591998016411708</v>
+        <v>-0.02136207123477431</v>
       </c>
       <c r="C38">
-        <v>-0.01772300390872684</v>
+        <v>0.01635143149893883</v>
       </c>
       <c r="D38">
-        <v>-0.004298767162727158</v>
+        <v>0.01120304092270625</v>
       </c>
       <c r="E38">
-        <v>0.006428370795559748</v>
+        <v>0.01452372448745195</v>
       </c>
       <c r="F38">
-        <v>0.0172029494421396</v>
+        <v>-0.01875441944336054</v>
       </c>
       <c r="G38">
-        <v>-0.06200694725540204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01159949315728793</v>
+      </c>
+      <c r="H38">
+        <v>-0.04455053234942492</v>
+      </c>
+      <c r="I38">
+        <v>0.0006388064464845297</v>
+      </c>
+      <c r="J38">
+        <v>-0.02068078633662835</v>
+      </c>
+      <c r="K38">
+        <v>-0.04160932867781358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1082432680452669</v>
+        <v>-0.1235236809182289</v>
       </c>
       <c r="C39">
-        <v>-0.03795922621820407</v>
+        <v>0.08679430659351886</v>
       </c>
       <c r="D39">
-        <v>-0.01669864993049023</v>
+        <v>0.04708748761618573</v>
       </c>
       <c r="E39">
-        <v>0.07007822679016738</v>
+        <v>-0.1055508740172742</v>
       </c>
       <c r="F39">
-        <v>-0.001681138596988956</v>
+        <v>0.02212849840236052</v>
       </c>
       <c r="G39">
-        <v>-0.1484433906144471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1138090728341257</v>
+      </c>
+      <c r="H39">
+        <v>0.09524361745000158</v>
+      </c>
+      <c r="I39">
+        <v>-0.04863517123907453</v>
+      </c>
+      <c r="J39">
+        <v>0.08395671630498644</v>
+      </c>
+      <c r="K39">
+        <v>0.1307834284983278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05017781455565731</v>
+        <v>-0.01835033907616326</v>
       </c>
       <c r="C40">
-        <v>-0.02426703957174867</v>
+        <v>0.03076586073410756</v>
       </c>
       <c r="D40">
-        <v>0.0142668882047104</v>
+        <v>-0.005205661938618501</v>
       </c>
       <c r="E40">
-        <v>0.1050123487948194</v>
+        <v>0.06142793558381908</v>
       </c>
       <c r="F40">
-        <v>-0.05252155633363242</v>
+        <v>-0.02891848245719982</v>
       </c>
       <c r="G40">
-        <v>-0.2397694094298534</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.06653092886273018</v>
+      </c>
+      <c r="H40">
+        <v>0.09786282914459747</v>
+      </c>
+      <c r="I40">
+        <v>0.01315131382915528</v>
+      </c>
+      <c r="J40">
+        <v>-0.09306339123150546</v>
+      </c>
+      <c r="K40">
+        <v>-0.0193997593331883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04776564000198461</v>
+        <v>-0.029962939708023</v>
       </c>
       <c r="C41">
-        <v>-0.0294408384080523</v>
+        <v>0.01146768556693338</v>
       </c>
       <c r="D41">
-        <v>-0.004390233947404826</v>
+        <v>-0.01060177835320421</v>
       </c>
       <c r="E41">
-        <v>-0.01678956518542743</v>
+        <v>-0.01229088140996585</v>
       </c>
       <c r="F41">
-        <v>0.02233126866645877</v>
+        <v>-0.006274479478205999</v>
       </c>
       <c r="G41">
-        <v>-0.06392890893867435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008174275803406137</v>
+      </c>
+      <c r="H41">
+        <v>0.01362081580401556</v>
+      </c>
+      <c r="I41">
+        <v>0.02017365543677385</v>
+      </c>
+      <c r="J41">
+        <v>0.006081769878477566</v>
+      </c>
+      <c r="K41">
+        <v>-0.04402583952648269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07360908653466441</v>
+        <v>-0.04621495693464634</v>
       </c>
       <c r="C43">
-        <v>-0.02904252276452292</v>
+        <v>0.01485454960783997</v>
       </c>
       <c r="D43">
-        <v>-0.02084176183588394</v>
+        <v>0.01262402378239137</v>
       </c>
       <c r="E43">
-        <v>0.02090478795440352</v>
+        <v>0.002235217553704828</v>
       </c>
       <c r="F43">
-        <v>0.02580444580394963</v>
+        <v>-0.01002999393566124</v>
       </c>
       <c r="G43">
-        <v>-0.005299893187144576</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03070122520811534</v>
+      </c>
+      <c r="H43">
+        <v>-0.002051009575591767</v>
+      </c>
+      <c r="I43">
+        <v>0.02844126380482506</v>
+      </c>
+      <c r="J43">
+        <v>0.01015798520056265</v>
+      </c>
+      <c r="K43">
+        <v>-0.03909405495110749</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07546649433223128</v>
+        <v>-0.1172457497437911</v>
       </c>
       <c r="C44">
-        <v>-0.01371078746953695</v>
+        <v>0.09846116364829297</v>
       </c>
       <c r="D44">
-        <v>-0.1014245430533071</v>
+        <v>0.04349888711865287</v>
       </c>
       <c r="E44">
-        <v>0.04907671180569714</v>
+        <v>0.04504050687947492</v>
       </c>
       <c r="F44">
-        <v>0.0408212510938277</v>
+        <v>-0.1112198330170456</v>
       </c>
       <c r="G44">
-        <v>-0.09709626019313249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.2088297740573468</v>
+      </c>
+      <c r="H44">
+        <v>0.1575049231938224</v>
+      </c>
+      <c r="I44">
+        <v>-0.07444980687222522</v>
+      </c>
+      <c r="J44">
+        <v>-0.1121253260387616</v>
+      </c>
+      <c r="K44">
+        <v>0.05053616230265755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04997592087315344</v>
+        <v>-0.0268504991017826</v>
       </c>
       <c r="C46">
-        <v>-0.03898317923932977</v>
+        <v>0.005654928797730353</v>
       </c>
       <c r="D46">
-        <v>-0.03188513297273185</v>
+        <v>0.01038771853657154</v>
       </c>
       <c r="E46">
-        <v>0.04722528106013685</v>
+        <v>0.02511701330233041</v>
       </c>
       <c r="F46">
-        <v>0.02181298387184609</v>
+        <v>-0.03589964007769265</v>
       </c>
       <c r="G46">
-        <v>-0.02700343168523411</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04470754275473563</v>
+      </c>
+      <c r="H46">
+        <v>0.02883774408047712</v>
+      </c>
+      <c r="I46">
+        <v>0.03253321358229931</v>
+      </c>
+      <c r="J46">
+        <v>0.01797810426036977</v>
+      </c>
+      <c r="K46">
+        <v>-0.06526958805424636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04925371576574734</v>
+        <v>-0.04063796674949752</v>
       </c>
       <c r="C47">
-        <v>-0.001219045436778069</v>
+        <v>0.007810286867279639</v>
       </c>
       <c r="D47">
-        <v>-0.001876618563985137</v>
+        <v>-0.001130089929418548</v>
       </c>
       <c r="E47">
-        <v>0.06390194213598531</v>
+        <v>0.0137876981028666</v>
       </c>
       <c r="F47">
-        <v>0.01075476589107061</v>
+        <v>-0.001368128736727111</v>
       </c>
       <c r="G47">
-        <v>0.00758409283930222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04559114379485001</v>
+      </c>
+      <c r="H47">
+        <v>0.01836974495273598</v>
+      </c>
+      <c r="I47">
+        <v>0.05742590721459046</v>
+      </c>
+      <c r="J47">
+        <v>-0.02386180920733614</v>
+      </c>
+      <c r="K47">
+        <v>-0.04413470964915076</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.0442310914992637</v>
+        <v>-0.03841838747239869</v>
       </c>
       <c r="C48">
-        <v>0.0001401411787876254</v>
+        <v>-0.0002403625016798182</v>
       </c>
       <c r="D48">
-        <v>0.005494940216651751</v>
+        <v>0.007753191812240834</v>
       </c>
       <c r="E48">
-        <v>0.03970937193437897</v>
+        <v>0.001416799686140829</v>
       </c>
       <c r="F48">
-        <v>0.004902425856564498</v>
+        <v>0.001876725284571965</v>
       </c>
       <c r="G48">
-        <v>-0.04190192098923743</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0447870310870488</v>
+      </c>
+      <c r="H48">
+        <v>0.04098281404211932</v>
+      </c>
+      <c r="I48">
+        <v>0.03125101312945672</v>
+      </c>
+      <c r="J48">
+        <v>0.008792085740261175</v>
+      </c>
+      <c r="K48">
+        <v>-0.0311907511684177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2379972434135558</v>
+        <v>-0.2318286709946343</v>
       </c>
       <c r="C49">
-        <v>-0.07107050469858868</v>
+        <v>0.03770317958312878</v>
       </c>
       <c r="D49">
-        <v>-0.01859793552652006</v>
+        <v>-0.05494671275408861</v>
       </c>
       <c r="E49">
-        <v>-0.09459076834339258</v>
+        <v>-0.04126870636546674</v>
       </c>
       <c r="F49">
-        <v>-0.1122008732775847</v>
+        <v>-0.03754246688951265</v>
       </c>
       <c r="G49">
-        <v>0.1131447484238644</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.2107462304652423</v>
+      </c>
+      <c r="H49">
+        <v>-0.1432411462420227</v>
+      </c>
+      <c r="I49">
+        <v>-0.2389606016768527</v>
+      </c>
+      <c r="J49">
+        <v>0.005920195619874297</v>
+      </c>
+      <c r="K49">
+        <v>0.1391672319580609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05418331201195262</v>
+        <v>-0.04266358054785008</v>
       </c>
       <c r="C50">
-        <v>-0.01481519974078406</v>
+        <v>0.01989079790747124</v>
       </c>
       <c r="D50">
-        <v>0.001176614940869207</v>
+        <v>-0.008238656766489038</v>
       </c>
       <c r="E50">
-        <v>0.01839856992917841</v>
+        <v>0.002186252622941903</v>
       </c>
       <c r="F50">
-        <v>0.05118703933461553</v>
+        <v>0.001141789148740763</v>
       </c>
       <c r="G50">
-        <v>-0.004198531380825041</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.03603698820283846</v>
+      </c>
+      <c r="H50">
+        <v>0.03271614852933689</v>
+      </c>
+      <c r="I50">
+        <v>0.01275614895695285</v>
+      </c>
+      <c r="J50">
+        <v>0.02008792456106281</v>
+      </c>
+      <c r="K50">
+        <v>-0.04847256312505714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03872823942612132</v>
+        <v>-0.01925480942483416</v>
       </c>
       <c r="C51">
-        <v>-0.00927852590325233</v>
+        <v>-0.004536920308987395</v>
       </c>
       <c r="D51">
-        <v>-0.01813028456429727</v>
+        <v>0.01358225920113849</v>
       </c>
       <c r="E51">
-        <v>-0.01029459933251872</v>
+        <v>-0.001425883174853814</v>
       </c>
       <c r="F51">
-        <v>0.01758699576381811</v>
+        <v>-0.0214604722132371</v>
       </c>
       <c r="G51">
-        <v>0.01179070138458521</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02727739123385394</v>
+      </c>
+      <c r="H51">
+        <v>-0.006809473720943735</v>
+      </c>
+      <c r="I51">
+        <v>-0.008444890524399788</v>
+      </c>
+      <c r="J51">
+        <v>-0.005653181973090981</v>
+      </c>
+      <c r="K51">
+        <v>0.01562672117375299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07679749584989212</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.04397365490377847</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0006172744766337252</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02176184905457374</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.006567055640888871</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.07165952814262307</v>
+      </c>
+      <c r="H52">
+        <v>-0.04736429010387297</v>
+      </c>
+      <c r="I52">
+        <v>0.08195707412732194</v>
+      </c>
+      <c r="J52">
+        <v>0.08363771518105705</v>
+      </c>
+      <c r="K52">
+        <v>0.01929270439609943</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1638889161245102</v>
+        <v>-0.1634486914336514</v>
       </c>
       <c r="C53">
-        <v>0.007060810025918853</v>
+        <v>0.02794638054704612</v>
       </c>
       <c r="D53">
-        <v>0.001714906173424838</v>
+        <v>0.008375619895422869</v>
       </c>
       <c r="E53">
-        <v>-0.07905703086079158</v>
+        <v>-0.01254088557295035</v>
       </c>
       <c r="F53">
-        <v>0.2311515626060091</v>
+        <v>-0.018187855102621</v>
       </c>
       <c r="G53">
-        <v>0.03188765202873789</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02835000892500294</v>
+      </c>
+      <c r="H53">
+        <v>-0.127843296778567</v>
+      </c>
+      <c r="I53">
+        <v>0.1299956713781986</v>
+      </c>
+      <c r="J53">
+        <v>0.1639348175951474</v>
+      </c>
+      <c r="K53">
+        <v>-0.1170419062277212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05450683631474572</v>
+        <v>-0.05301676528450994</v>
       </c>
       <c r="C54">
-        <v>-0.007733462347559871</v>
+        <v>0.01931935834587462</v>
       </c>
       <c r="D54">
-        <v>-0.01724154871387069</v>
+        <v>-0.004034981391137372</v>
       </c>
       <c r="E54">
-        <v>0.03993706798252759</v>
+        <v>0.02399045792968792</v>
       </c>
       <c r="F54">
-        <v>0.01616113943026215</v>
+        <v>-0.01054552929413387</v>
       </c>
       <c r="G54">
-        <v>-0.06913449670549497</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04701267984843769</v>
+      </c>
+      <c r="H54">
+        <v>0.1177771173445906</v>
+      </c>
+      <c r="I54">
+        <v>0.07639330704243383</v>
+      </c>
+      <c r="J54">
+        <v>-0.01764989483789741</v>
+      </c>
+      <c r="K54">
+        <v>-0.1135114187133518</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09759259079284269</v>
+        <v>-0.08828831077412319</v>
       </c>
       <c r="C55">
-        <v>-0.006933346170245341</v>
+        <v>0.02397494640877499</v>
       </c>
       <c r="D55">
-        <v>-0.009490409749074601</v>
+        <v>0.05188988050352805</v>
       </c>
       <c r="E55">
-        <v>-0.02164804996830958</v>
+        <v>-0.03146259027146203</v>
       </c>
       <c r="F55">
-        <v>0.1727317601028204</v>
+        <v>-0.006855008474522143</v>
       </c>
       <c r="G55">
-        <v>-0.01581091886142916</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01958148924533625</v>
+      </c>
+      <c r="H55">
+        <v>-0.03179001744443447</v>
+      </c>
+      <c r="I55">
+        <v>0.09588183833332835</v>
+      </c>
+      <c r="J55">
+        <v>0.1096174556957857</v>
+      </c>
+      <c r="K55">
+        <v>-0.08254574833440519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1650851644187529</v>
+        <v>-0.1612639733480817</v>
       </c>
       <c r="C56">
-        <v>0.006552658451043902</v>
+        <v>0.0403491960526621</v>
       </c>
       <c r="D56">
-        <v>0.009544718932711953</v>
+        <v>0.01838833582985069</v>
       </c>
       <c r="E56">
-        <v>-0.07732816473024111</v>
+        <v>-0.03453599432556139</v>
       </c>
       <c r="F56">
-        <v>0.2373440050523339</v>
+        <v>-0.02366389137005843</v>
       </c>
       <c r="G56">
-        <v>0.02918671564481361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.0462851417308321</v>
+      </c>
+      <c r="H56">
+        <v>-0.07762448987087248</v>
+      </c>
+      <c r="I56">
+        <v>0.07031367933107667</v>
+      </c>
+      <c r="J56">
+        <v>0.1731268561794926</v>
+      </c>
+      <c r="K56">
+        <v>-0.1280646972893413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.01842633106749265</v>
+        <v>-0.03877728382276483</v>
       </c>
       <c r="C58">
-        <v>-0.07771063379282803</v>
+        <v>0.02136148951054291</v>
       </c>
       <c r="D58">
-        <v>0.003833672556989816</v>
+        <v>0.008018624565188471</v>
       </c>
       <c r="E58">
-        <v>0.2573718982397577</v>
+        <v>0.07940251537675826</v>
       </c>
       <c r="F58">
-        <v>-0.3289289719943592</v>
+        <v>-0.02336756929161253</v>
       </c>
       <c r="G58">
-        <v>-0.0571332242077134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.112580764520239</v>
+      </c>
+      <c r="H58">
+        <v>-0.006905837977697547</v>
+      </c>
+      <c r="I58">
+        <v>0.06311924089560071</v>
+      </c>
+      <c r="J58">
+        <v>-0.1311849285888749</v>
+      </c>
+      <c r="K58">
+        <v>0.06674354961893837</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.148227381880153</v>
+        <v>-0.1722737849454976</v>
       </c>
       <c r="C59">
-        <v>0.3883764157168571</v>
+        <v>-0.2952497228840752</v>
       </c>
       <c r="D59">
-        <v>-0.05597045667575265</v>
+        <v>0.03645155596654985</v>
       </c>
       <c r="E59">
-        <v>-0.06268779680333478</v>
+        <v>-0.06358925624832387</v>
       </c>
       <c r="F59">
-        <v>0.01582592140381527</v>
+        <v>-0.01963857706596682</v>
       </c>
       <c r="G59">
-        <v>-0.04455495468295462</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0195575963810404</v>
+      </c>
+      <c r="H59">
+        <v>0.04785660558555331</v>
+      </c>
+      <c r="I59">
+        <v>0.001404713629511232</v>
+      </c>
+      <c r="J59">
+        <v>0.0708039579132911</v>
+      </c>
+      <c r="K59">
+        <v>0.01697760270045292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2742226903832235</v>
+        <v>-0.2792934185244452</v>
       </c>
       <c r="C60">
-        <v>-0.05611873142199098</v>
+        <v>0.1370195518829309</v>
       </c>
       <c r="D60">
-        <v>-0.04447166730489478</v>
+        <v>-0.04446339408985891</v>
       </c>
       <c r="E60">
-        <v>-0.0704047497105233</v>
+        <v>-0.08375273055772768</v>
       </c>
       <c r="F60">
-        <v>-0.07053742772342317</v>
+        <v>-0.09807398063674629</v>
       </c>
       <c r="G60">
-        <v>0.1674246381697892</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05691070174671537</v>
+      </c>
+      <c r="H60">
+        <v>-0.1809699013303785</v>
+      </c>
+      <c r="I60">
+        <v>-0.2878948780463077</v>
+      </c>
+      <c r="J60">
+        <v>-0.09209923371608619</v>
+      </c>
+      <c r="K60">
+        <v>0.07295501305264365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09538838202701889</v>
+        <v>-0.1115186940127963</v>
       </c>
       <c r="C61">
-        <v>-0.01981373824666314</v>
+        <v>0.05566506784635087</v>
       </c>
       <c r="D61">
-        <v>-0.007543443931017103</v>
+        <v>0.03061142595684564</v>
       </c>
       <c r="E61">
-        <v>0.02208266864019615</v>
+        <v>-0.07251697102607747</v>
       </c>
       <c r="F61">
-        <v>0.02077585081874686</v>
+        <v>-0.009622932676003212</v>
       </c>
       <c r="G61">
-        <v>-0.06579194012483257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.107458686312741</v>
+      </c>
+      <c r="H61">
+        <v>0.102557165939165</v>
+      </c>
+      <c r="I61">
+        <v>0.01767300027536324</v>
+      </c>
+      <c r="J61">
+        <v>0.07924628340709157</v>
+      </c>
+      <c r="K61">
+        <v>0.07879290968227382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1475478868728904</v>
+        <v>-0.1561316366387892</v>
       </c>
       <c r="C62">
-        <v>-0.01615258435653926</v>
+        <v>0.03825824347065826</v>
       </c>
       <c r="D62">
-        <v>0.02740435796041655</v>
+        <v>0.02643097868619728</v>
       </c>
       <c r="E62">
-        <v>-0.1323098213642292</v>
+        <v>-0.03616205931908373</v>
       </c>
       <c r="F62">
-        <v>0.1959832488894636</v>
+        <v>-0.01025618315583647</v>
       </c>
       <c r="G62">
-        <v>-0.002011999492559128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.03240958611509366</v>
+      </c>
+      <c r="H62">
+        <v>-0.09889685687378273</v>
+      </c>
+      <c r="I62">
+        <v>0.08529611754569723</v>
+      </c>
+      <c r="J62">
+        <v>0.1309544754016818</v>
+      </c>
+      <c r="K62">
+        <v>-0.1258626904911402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04268080216853742</v>
+        <v>-0.03865762216278697</v>
       </c>
       <c r="C63">
-        <v>-0.01919503659237773</v>
+        <v>0.000772192932620012</v>
       </c>
       <c r="D63">
-        <v>0.004666242729870972</v>
+        <v>0.008717142044456909</v>
       </c>
       <c r="E63">
-        <v>0.01341141689844369</v>
+        <v>0.008922825570943621</v>
       </c>
       <c r="F63">
-        <v>0.01449569847034314</v>
+        <v>0.02825103475036622</v>
       </c>
       <c r="G63">
-        <v>-0.04098416587593011</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.02482062043065646</v>
+      </c>
+      <c r="H63">
+        <v>0.05620854335166824</v>
+      </c>
+      <c r="I63">
+        <v>0.01324452596480749</v>
+      </c>
+      <c r="J63">
+        <v>0.02599007438420849</v>
+      </c>
+      <c r="K63">
+        <v>-0.04665484412715956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.109335731508102</v>
+        <v>-0.1007590402304869</v>
       </c>
       <c r="C64">
-        <v>-0.01311561064405892</v>
+        <v>0.02399840176735579</v>
       </c>
       <c r="D64">
-        <v>-0.03713883100992857</v>
+        <v>-0.005272333512753189</v>
       </c>
       <c r="E64">
-        <v>0.04614202948893986</v>
+        <v>-0.01058244378014911</v>
       </c>
       <c r="F64">
-        <v>-0.0187114395082453</v>
+        <v>-0.04984621544464009</v>
       </c>
       <c r="G64">
-        <v>-0.0520543543153958</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.04537199775329746</v>
+      </c>
+      <c r="H64">
+        <v>0.0590553732224433</v>
+      </c>
+      <c r="I64">
+        <v>-0.0612521988191186</v>
+      </c>
+      <c r="J64">
+        <v>-0.01790226913486252</v>
+      </c>
+      <c r="K64">
+        <v>-0.00326228964219838</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.115944025745066</v>
+        <v>-0.1165039479816828</v>
       </c>
       <c r="C65">
-        <v>-0.0279147752879917</v>
+        <v>0.00248984914728411</v>
       </c>
       <c r="D65">
-        <v>-0.007671905757117064</v>
+        <v>-0.005709805165355619</v>
       </c>
       <c r="E65">
-        <v>0.06795898666215883</v>
+        <v>0.01714257496611851</v>
       </c>
       <c r="F65">
-        <v>-0.2751456290150101</v>
+        <v>0.04014176190736841</v>
       </c>
       <c r="G65">
-        <v>0.1968124877071598</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.03629208193333256</v>
+      </c>
+      <c r="H65">
+        <v>0.01443873719007158</v>
+      </c>
+      <c r="I65">
+        <v>-0.1011465261506782</v>
+      </c>
+      <c r="J65">
+        <v>-0.3539586343541045</v>
+      </c>
+      <c r="K65">
+        <v>-0.3965230430445514</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1588665859225877</v>
+        <v>-0.1532850346930545</v>
       </c>
       <c r="C66">
-        <v>-0.04530688627819229</v>
+        <v>0.1123011191326525</v>
       </c>
       <c r="D66">
-        <v>-0.0002638282655281075</v>
+        <v>0.03990571648918698</v>
       </c>
       <c r="E66">
-        <v>0.02131569848437012</v>
+        <v>-0.1121147093632252</v>
       </c>
       <c r="F66">
-        <v>-0.004276171233172362</v>
+        <v>0.02701996990946466</v>
       </c>
       <c r="G66">
-        <v>-0.2959596056066744</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1028077422247657</v>
+      </c>
+      <c r="H66">
+        <v>0.09610114357580136</v>
+      </c>
+      <c r="I66">
+        <v>-0.1085441571984824</v>
+      </c>
+      <c r="J66">
+        <v>0.1635732994905884</v>
+      </c>
+      <c r="K66">
+        <v>0.1389554621685885</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1093511473022637</v>
+        <v>-0.08065540573592209</v>
       </c>
       <c r="C67">
-        <v>-0.03741667195835913</v>
+        <v>0.04370253241034727</v>
       </c>
       <c r="D67">
-        <v>-0.02087286989610544</v>
+        <v>0.07702644812889761</v>
       </c>
       <c r="E67">
-        <v>-0.01829729834839482</v>
+        <v>-0.004152586222252454</v>
       </c>
       <c r="F67">
-        <v>0.03385245330552952</v>
+        <v>-0.02851527510032687</v>
       </c>
       <c r="G67">
-        <v>-0.05556245144528582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.06773468208926442</v>
+      </c>
+      <c r="H67">
+        <v>-0.0170834378598297</v>
+      </c>
+      <c r="I67">
+        <v>-0.01882083164125925</v>
+      </c>
+      <c r="J67">
+        <v>0.01190875952135739</v>
+      </c>
+      <c r="K67">
+        <v>-0.0009726703772189985</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.03688266876787877</v>
+        <v>-0.08267300334405028</v>
       </c>
       <c r="C68">
-        <v>0.2935030992527882</v>
+        <v>-0.2869738083824823</v>
       </c>
       <c r="D68">
-        <v>-0.01018810650960033</v>
+        <v>0.01053917652583996</v>
       </c>
       <c r="E68">
-        <v>-0.003242010680671938</v>
+        <v>-0.02208614237842879</v>
       </c>
       <c r="F68">
-        <v>-0.0006969817184867647</v>
+        <v>0.01863958461143999</v>
       </c>
       <c r="G68">
-        <v>0.0197435492213013</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03129368830861293</v>
+      </c>
+      <c r="H68">
+        <v>0.04115621554250586</v>
+      </c>
+      <c r="I68">
+        <v>-0.01627984884618665</v>
+      </c>
+      <c r="J68">
+        <v>-0.001873501242171485</v>
+      </c>
+      <c r="K68">
+        <v>-0.01010281010864754</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04876653481437682</v>
+        <v>-0.0371437212147324</v>
       </c>
       <c r="C69">
-        <v>-0.01270564495013804</v>
+        <v>0.003748912300545874</v>
       </c>
       <c r="D69">
-        <v>0.004068539885623523</v>
+        <v>0.02562153849376422</v>
       </c>
       <c r="E69">
-        <v>-0.001839409344541842</v>
+        <v>-0.004006927509011776</v>
       </c>
       <c r="F69">
-        <v>0.001334396144531351</v>
+        <v>-0.009304785423846072</v>
       </c>
       <c r="G69">
-        <v>-0.01211174102453954</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02278752270678163</v>
+      </c>
+      <c r="H69">
+        <v>-0.006332823724333237</v>
+      </c>
+      <c r="I69">
+        <v>0.02277432728740383</v>
+      </c>
+      <c r="J69">
+        <v>-0.001230512574148366</v>
+      </c>
+      <c r="K69">
+        <v>-0.03132289668419721</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07804008453440235</v>
+        <v>-0.04411973597252172</v>
       </c>
       <c r="C70">
-        <v>-0.00463406484158279</v>
+        <v>-0.00112522711118267</v>
       </c>
       <c r="D70">
-        <v>-0.02738234788750134</v>
+        <v>0.03118719629603389</v>
       </c>
       <c r="E70">
-        <v>-0.02355193997445998</v>
+        <v>-0.03597935317217253</v>
       </c>
       <c r="F70">
-        <v>-0.03321940356938461</v>
+        <v>-0.02959017828351854</v>
       </c>
       <c r="G70">
-        <v>0.0230636040206894</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.02364806672511147</v>
+      </c>
+      <c r="H70">
+        <v>-0.0005233934102555671</v>
+      </c>
+      <c r="I70">
+        <v>0.09079578569796244</v>
+      </c>
+      <c r="J70">
+        <v>-0.1496458737024939</v>
+      </c>
+      <c r="K70">
+        <v>-0.06137814077129469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04778074601206101</v>
+        <v>-0.09594990194623043</v>
       </c>
       <c r="C71">
-        <v>0.2992987747814319</v>
+        <v>-0.2999205832278125</v>
       </c>
       <c r="D71">
-        <v>-0.03052628729225032</v>
+        <v>0.01306188842909575</v>
       </c>
       <c r="E71">
-        <v>-0.0006465943346924271</v>
+        <v>-0.02385982582754164</v>
       </c>
       <c r="F71">
-        <v>-0.006829105816768269</v>
+        <v>-0.01252891487136079</v>
       </c>
       <c r="G71">
-        <v>-0.008048396044961667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03874097016744176</v>
+      </c>
+      <c r="H71">
+        <v>0.03942613316445153</v>
+      </c>
+      <c r="I71">
+        <v>-0.04015647464018909</v>
+      </c>
+      <c r="J71">
+        <v>0.00514688562628473</v>
+      </c>
+      <c r="K71">
+        <v>0.0009329190200537584</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1356664140599657</v>
+        <v>-0.1427389115176151</v>
       </c>
       <c r="C72">
-        <v>0.02891250885578058</v>
+        <v>-0.01249703481754445</v>
       </c>
       <c r="D72">
-        <v>0.2255949271235385</v>
+        <v>0.005763028447519591</v>
       </c>
       <c r="E72">
-        <v>-0.01594408282999128</v>
+        <v>0.02233628487445643</v>
       </c>
       <c r="F72">
-        <v>-0.06321562348924227</v>
+        <v>0.08632451572235049</v>
       </c>
       <c r="G72">
-        <v>-0.06734435706098436</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01979215111684532</v>
+      </c>
+      <c r="H72">
+        <v>-0.01823417293022048</v>
+      </c>
+      <c r="I72">
+        <v>-0.03154587526633025</v>
+      </c>
+      <c r="J72">
+        <v>0.003258387138266576</v>
+      </c>
+      <c r="K72">
+        <v>-0.1419680185816913</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2857278548865282</v>
+        <v>-0.2441575369455275</v>
       </c>
       <c r="C73">
-        <v>-0.147783195199032</v>
+        <v>0.09518726151725705</v>
       </c>
       <c r="D73">
-        <v>-0.06312729239438819</v>
+        <v>0.02946120133290233</v>
       </c>
       <c r="E73">
-        <v>-0.1465892075828775</v>
+        <v>-0.1190997953622596</v>
       </c>
       <c r="F73">
-        <v>-0.2892815493111517</v>
+        <v>-0.113088157279511</v>
       </c>
       <c r="G73">
-        <v>0.321943525552386</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2878352997423139</v>
+      </c>
+      <c r="H73">
+        <v>-0.2774613329212276</v>
+      </c>
+      <c r="I73">
+        <v>-0.1992980409023459</v>
+      </c>
+      <c r="J73">
+        <v>-0.202472395635417</v>
+      </c>
+      <c r="K73">
+        <v>0.2436978098399618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.1032580955937514</v>
+        <v>-0.1138704487710719</v>
       </c>
       <c r="C74">
-        <v>-0.03080334069746759</v>
+        <v>0.04354602062885127</v>
       </c>
       <c r="D74">
-        <v>-0.005559942894008595</v>
+        <v>0.02184856874554464</v>
       </c>
       <c r="E74">
-        <v>-0.03280322276932976</v>
+        <v>-0.007249273311388808</v>
       </c>
       <c r="F74">
-        <v>0.1191406007635712</v>
+        <v>-0.005313952420740206</v>
       </c>
       <c r="G74">
-        <v>0.03097356967771005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05915795905323169</v>
+      </c>
+      <c r="H74">
+        <v>-0.09091985915306715</v>
+      </c>
+      <c r="I74">
+        <v>0.04635842316120967</v>
+      </c>
+      <c r="J74">
+        <v>0.1065029435167031</v>
+      </c>
+      <c r="K74">
+        <v>-0.09038068744267959</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09352082832279622</v>
+        <v>-0.1131553366361309</v>
       </c>
       <c r="C75">
-        <v>-0.02003882867343418</v>
+        <v>0.04278435952117289</v>
       </c>
       <c r="D75">
-        <v>0.0269357054858476</v>
+        <v>0.008225615331694523</v>
       </c>
       <c r="E75">
-        <v>-0.04445355278283949</v>
+        <v>-0.001858589845982399</v>
       </c>
       <c r="F75">
-        <v>0.1218283270429392</v>
+        <v>0.01444743437349629</v>
       </c>
       <c r="G75">
-        <v>0.04193330268190244</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.001526687730718804</v>
+      </c>
+      <c r="H75">
+        <v>-0.05161905953687178</v>
+      </c>
+      <c r="I75">
+        <v>0.07798471956304523</v>
+      </c>
+      <c r="J75">
+        <v>0.1197694216594272</v>
+      </c>
+      <c r="K75">
+        <v>-0.07721715132099669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1401292669017053</v>
+        <v>-0.05332295295677644</v>
       </c>
       <c r="C76">
-        <v>-0.02674315354643493</v>
+        <v>0.01148944379891841</v>
       </c>
       <c r="D76">
-        <v>-0.01410449780437141</v>
+        <v>0.02889673040792828</v>
       </c>
       <c r="E76">
-        <v>-0.02150454889758048</v>
+        <v>-0.005025548366151488</v>
       </c>
       <c r="F76">
-        <v>0.2659612522397818</v>
+        <v>-0.03341229418652306</v>
       </c>
       <c r="G76">
-        <v>0.07460705630397925</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.03965125859771559</v>
+      </c>
+      <c r="H76">
+        <v>-0.05621410762496221</v>
+      </c>
+      <c r="I76">
+        <v>0.06077402383201104</v>
+      </c>
+      <c r="J76">
+        <v>0.08346110035638707</v>
+      </c>
+      <c r="K76">
+        <v>-0.09059827823015951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08278744766607125</v>
+        <v>-0.07791994494205315</v>
       </c>
       <c r="C77">
-        <v>0.007587953087130301</v>
+        <v>0.07835797721270607</v>
       </c>
       <c r="D77">
-        <v>-0.04831728687388872</v>
+        <v>-0.005354801732072387</v>
       </c>
       <c r="E77">
-        <v>0.1118714923276072</v>
+        <v>-0.00473546274942007</v>
       </c>
       <c r="F77">
-        <v>-0.254651208606496</v>
+        <v>-0.0486051784773365</v>
       </c>
       <c r="G77">
-        <v>-0.1399149152630776</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0579935873857254</v>
+      </c>
+      <c r="H77">
+        <v>0.2753098204476176</v>
+      </c>
+      <c r="I77">
+        <v>-0.2346095073674965</v>
+      </c>
+      <c r="J77">
+        <v>-0.1604117471865895</v>
+      </c>
+      <c r="K77">
+        <v>-0.05683451867055229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2190943458798684</v>
+        <v>-0.1548726136807947</v>
       </c>
       <c r="C78">
-        <v>-0.05733221722548847</v>
+        <v>0.06809203227962411</v>
       </c>
       <c r="D78">
-        <v>-0.06817283988268018</v>
+        <v>0.09797052211926469</v>
       </c>
       <c r="E78">
-        <v>0.1984499211148935</v>
+        <v>0.2655496818207022</v>
       </c>
       <c r="F78">
-        <v>-0.05153177026464435</v>
+        <v>-0.009739533521465666</v>
       </c>
       <c r="G78">
-        <v>-0.159237937024193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.6718579676351983</v>
+      </c>
+      <c r="H78">
+        <v>0.4863093932917638</v>
+      </c>
+      <c r="I78">
+        <v>0.2920194026295643</v>
+      </c>
+      <c r="J78">
+        <v>0.09964882725389271</v>
+      </c>
+      <c r="K78">
+        <v>0.1057432741794874</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1385233601560704</v>
+        <v>-0.1366192544244441</v>
       </c>
       <c r="C79">
-        <v>-0.008853065079785475</v>
+        <v>0.04176053934262616</v>
       </c>
       <c r="D79">
-        <v>-0.0004048611891266738</v>
+        <v>-0.007666454386127374</v>
       </c>
       <c r="E79">
-        <v>-0.02941189472521044</v>
+        <v>-0.0146508707742</v>
       </c>
       <c r="F79">
-        <v>0.1502631529443369</v>
+        <v>-0.007783632114937843</v>
       </c>
       <c r="G79">
-        <v>-0.0112517494668247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.02615052655589504</v>
+      </c>
+      <c r="H79">
+        <v>-0.04932674320083111</v>
+      </c>
+      <c r="I79">
+        <v>0.03404250269376426</v>
+      </c>
+      <c r="J79">
+        <v>0.1241639770958623</v>
+      </c>
+      <c r="K79">
+        <v>-0.1278701345872252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03397571255634686</v>
+        <v>-0.06774128779982404</v>
       </c>
       <c r="C80">
-        <v>-0.008925363042527541</v>
+        <v>0.04897618751393128</v>
       </c>
       <c r="D80">
-        <v>-0.01876548077200678</v>
+        <v>0.04223345841270219</v>
       </c>
       <c r="E80">
-        <v>-0.03528703780807578</v>
+        <v>-0.05451160804946376</v>
       </c>
       <c r="F80">
-        <v>-0.03861411382017165</v>
+        <v>0.000660663117154058</v>
       </c>
       <c r="G80">
-        <v>-0.06330231688140908</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.07437269984908422</v>
+      </c>
+      <c r="H80">
+        <v>0.022983247271563</v>
+      </c>
+      <c r="I80">
+        <v>0.2677822327282863</v>
+      </c>
+      <c r="J80">
+        <v>-0.09563475620233702</v>
+      </c>
+      <c r="K80">
+        <v>0.1736750148826022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.112594768725219</v>
+        <v>-0.1323312417635689</v>
       </c>
       <c r="C81">
-        <v>-0.003143598424590073</v>
+        <v>0.04414567470026149</v>
       </c>
       <c r="D81">
-        <v>-0.01731716082063817</v>
+        <v>0.005210651925958029</v>
       </c>
       <c r="E81">
-        <v>-0.01802899812549644</v>
+        <v>-0.004984319546175643</v>
       </c>
       <c r="F81">
-        <v>0.1342509075536165</v>
+        <v>-0.01403450986610745</v>
       </c>
       <c r="G81">
-        <v>0.02073063406040946</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.05479471396257059</v>
+      </c>
+      <c r="H81">
+        <v>-0.03784352657758764</v>
+      </c>
+      <c r="I81">
+        <v>0.0794678491219771</v>
+      </c>
+      <c r="J81">
+        <v>0.1333431034134893</v>
+      </c>
+      <c r="K81">
+        <v>-0.08494701216488079</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1133045126849083</v>
+        <v>-0.1470300271681799</v>
       </c>
       <c r="C82">
-        <v>-0.02226708222186176</v>
+        <v>0.04316935997032251</v>
       </c>
       <c r="D82">
-        <v>-0.04547440898386598</v>
+        <v>0.01854064449238808</v>
       </c>
       <c r="E82">
-        <v>-0.07986046863055736</v>
+        <v>-0.05676566346790998</v>
       </c>
       <c r="F82">
-        <v>0.2462670519154316</v>
+        <v>-0.02553717592223334</v>
       </c>
       <c r="G82">
-        <v>-0.0169452386938174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.07132649812011736</v>
+      </c>
+      <c r="H82">
+        <v>-0.1377307506758697</v>
+      </c>
+      <c r="I82">
+        <v>0.12680776543687</v>
+      </c>
+      <c r="J82">
+        <v>0.1885203499785976</v>
+      </c>
+      <c r="K82">
+        <v>-0.0355462946385399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1087484581438742</v>
+        <v>-0.08789432702927434</v>
       </c>
       <c r="C83">
-        <v>-0.04841897036878352</v>
+        <v>0.06321520251736</v>
       </c>
       <c r="D83">
-        <v>-0.05948034349066174</v>
+        <v>-0.02436471031881027</v>
       </c>
       <c r="E83">
-        <v>-0.01896862699139978</v>
+        <v>0.01532032049545968</v>
       </c>
       <c r="F83">
-        <v>-0.06752285222144032</v>
+        <v>-0.01113657782392942</v>
       </c>
       <c r="G83">
-        <v>-0.06684887842309246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.09714651042138031</v>
+      </c>
+      <c r="H83">
+        <v>0.02071208392310116</v>
+      </c>
+      <c r="I83">
+        <v>0.3112605443678768</v>
+      </c>
+      <c r="J83">
+        <v>-0.3947942422626235</v>
+      </c>
+      <c r="K83">
+        <v>0.05520326655784969</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05077477903232374</v>
+        <v>-0.06155778582803643</v>
       </c>
       <c r="C84">
-        <v>-0.02249516085521346</v>
+        <v>0.002515503423542702</v>
       </c>
       <c r="D84">
-        <v>0.06164443441906857</v>
+        <v>-0.02465529187702877</v>
       </c>
       <c r="E84">
-        <v>0.02956280471827545</v>
+        <v>-0.03359011241719991</v>
       </c>
       <c r="F84">
-        <v>0.0637897562400549</v>
+        <v>0.004846349801212827</v>
       </c>
       <c r="G84">
-        <v>0.02481665719546343</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.00537796938759094</v>
+      </c>
+      <c r="H84">
+        <v>-0.007016033431574312</v>
+      </c>
+      <c r="I84">
+        <v>-0.06469199593986824</v>
+      </c>
+      <c r="J84">
+        <v>0.06999725409160988</v>
+      </c>
+      <c r="K84">
+        <v>0.4222794678469898</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1022452979983237</v>
+        <v>-0.1205255450920451</v>
       </c>
       <c r="C85">
-        <v>-0.02204511701400139</v>
+        <v>0.03282745984561058</v>
       </c>
       <c r="D85">
-        <v>-0.0293329345365063</v>
+        <v>0.004840049799507867</v>
       </c>
       <c r="E85">
-        <v>-0.0331055723359983</v>
+        <v>-0.02296925247341023</v>
       </c>
       <c r="F85">
-        <v>0.1922710204194923</v>
+        <v>-0.03335073902426856</v>
       </c>
       <c r="G85">
-        <v>-0.004975958385097963</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.03464746714244192</v>
+      </c>
+      <c r="H85">
+        <v>-0.04254663039297637</v>
+      </c>
+      <c r="I85">
+        <v>0.08112955861075814</v>
+      </c>
+      <c r="J85">
+        <v>0.1356732142065184</v>
+      </c>
+      <c r="K85">
+        <v>-0.1057321264258446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06661562987732332</v>
+        <v>-0.1300112545189241</v>
       </c>
       <c r="C86">
-        <v>-0.01785469169793926</v>
+        <v>0.02566694677644794</v>
       </c>
       <c r="D86">
-        <v>-0.08127354469045422</v>
+        <v>-0.9381109675150734</v>
       </c>
       <c r="E86">
-        <v>0.05650657090376487</v>
+        <v>0.1556808367077414</v>
       </c>
       <c r="F86">
-        <v>-0.0317441592245598</v>
+        <v>0.0820013702085203</v>
       </c>
       <c r="G86">
-        <v>-0.06788193852198711</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05780100219397945</v>
+      </c>
+      <c r="H86">
+        <v>0.0396388822633229</v>
+      </c>
+      <c r="I86">
+        <v>0.09226615591058554</v>
+      </c>
+      <c r="J86">
+        <v>0.01537414476295149</v>
+      </c>
+      <c r="K86">
+        <v>0.0897519905646073</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1046175357130504</v>
+        <v>-0.1185785867276266</v>
       </c>
       <c r="C87">
-        <v>-0.05877533832456913</v>
+        <v>0.0988188882289434</v>
       </c>
       <c r="D87">
-        <v>-0.006859871550965927</v>
+        <v>0.007300400638883787</v>
       </c>
       <c r="E87">
-        <v>0.07319603244497599</v>
+        <v>-0.002375281553858719</v>
       </c>
       <c r="F87">
-        <v>-0.04536392798322249</v>
+        <v>-0.03001674862892511</v>
       </c>
       <c r="G87">
-        <v>-0.1203031599706941</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.04396181282119571</v>
+      </c>
+      <c r="H87">
+        <v>0.1578004450549816</v>
+      </c>
+      <c r="I87">
+        <v>-0.1093031529513804</v>
+      </c>
+      <c r="J87">
+        <v>-0.1268439085948972</v>
+      </c>
+      <c r="K87">
+        <v>-0.1430276972422349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.07007973388431638</v>
+        <v>-0.05758860884741999</v>
       </c>
       <c r="C88">
-        <v>-0.04268332025236115</v>
+        <v>0.0329036507733889</v>
       </c>
       <c r="D88">
-        <v>-0.02501185195402182</v>
+        <v>0.01286770245191464</v>
       </c>
       <c r="E88">
-        <v>0.0146389334552695</v>
+        <v>-0.04767270255862676</v>
       </c>
       <c r="F88">
-        <v>0.0179081800506688</v>
+        <v>-0.003401588007424955</v>
       </c>
       <c r="G88">
-        <v>-0.05408800355836045</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.01347247825204503</v>
+      </c>
+      <c r="H88">
+        <v>0.01814494245779609</v>
+      </c>
+      <c r="I88">
+        <v>0.02226218294163569</v>
+      </c>
+      <c r="J88">
+        <v>0.01599727678838672</v>
+      </c>
+      <c r="K88">
+        <v>-0.02791115998903747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09244856529434169</v>
+        <v>-0.1475904361437332</v>
       </c>
       <c r="C89">
-        <v>0.3808701248840582</v>
+        <v>-0.3717333054946401</v>
       </c>
       <c r="D89">
-        <v>-0.08954974911306575</v>
+        <v>0.01756797333449811</v>
       </c>
       <c r="E89">
-        <v>0.0215297954860386</v>
+        <v>0.0193917717277853</v>
       </c>
       <c r="F89">
-        <v>-0.01446370503498015</v>
+        <v>-0.06571226269442418</v>
       </c>
       <c r="G89">
-        <v>0.01000435273947814</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01171597156701489</v>
+      </c>
+      <c r="H89">
+        <v>0.035684455488603</v>
+      </c>
+      <c r="I89">
+        <v>0.03517052355275658</v>
+      </c>
+      <c r="J89">
+        <v>-0.03773523987035184</v>
+      </c>
+      <c r="K89">
+        <v>0.08744500720064208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07093674485053376</v>
+        <v>-0.1107384697124826</v>
       </c>
       <c r="C90">
-        <v>0.2920614587197234</v>
+        <v>-0.2913566431958795</v>
       </c>
       <c r="D90">
-        <v>-0.03444886807305786</v>
+        <v>0.002029967948454572</v>
       </c>
       <c r="E90">
-        <v>0.04958179297320151</v>
+        <v>-0.02736892899309354</v>
       </c>
       <c r="F90">
-        <v>-0.04497757902453105</v>
+        <v>-0.01537031429450015</v>
       </c>
       <c r="G90">
-        <v>-0.02659181725520028</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03999234439006415</v>
+      </c>
+      <c r="H90">
+        <v>0.04702778481389931</v>
+      </c>
+      <c r="I90">
+        <v>-0.02508279519067702</v>
+      </c>
+      <c r="J90">
+        <v>-0.04215192795239624</v>
+      </c>
+      <c r="K90">
+        <v>0.04522457404407902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08169244297157939</v>
+        <v>-0.08341218589298362</v>
       </c>
       <c r="C91">
-        <v>-0.02022967630128214</v>
+        <v>0.0345856969604723</v>
       </c>
       <c r="D91">
-        <v>-0.01448608858743001</v>
+        <v>-0.01511927540942072</v>
       </c>
       <c r="E91">
-        <v>-0.02758672935768105</v>
+        <v>-0.006805685547962501</v>
       </c>
       <c r="F91">
-        <v>0.0933220319116763</v>
+        <v>-0.02139265542366419</v>
       </c>
       <c r="G91">
-        <v>0.06054869815699077</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01600897218532341</v>
+      </c>
+      <c r="H91">
+        <v>-0.05408036916097426</v>
+      </c>
+      <c r="I91">
+        <v>0.05266728926991122</v>
+      </c>
+      <c r="J91">
+        <v>0.0684242231193188</v>
+      </c>
+      <c r="K91">
+        <v>-0.06897947782982383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.06501587886853166</v>
+        <v>-0.1208081357638191</v>
       </c>
       <c r="C92">
-        <v>0.3497751574476476</v>
+        <v>-0.3389778107633021</v>
       </c>
       <c r="D92">
-        <v>-0.05234486581141336</v>
+        <v>0.01394688146886124</v>
       </c>
       <c r="E92">
-        <v>0.03059781542984505</v>
+        <v>0.01656913252823806</v>
       </c>
       <c r="F92">
-        <v>-0.05043897443493767</v>
+        <v>-0.02674419557267926</v>
       </c>
       <c r="G92">
-        <v>0.02588852549401727</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02524846119216163</v>
+      </c>
+      <c r="H92">
+        <v>0.06831498149961018</v>
+      </c>
+      <c r="I92">
+        <v>0.03242276167044229</v>
+      </c>
+      <c r="J92">
+        <v>0.02396058646809372</v>
+      </c>
+      <c r="K92">
+        <v>0.04064090905683494</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08275898852811102</v>
+        <v>-0.1162086609229668</v>
       </c>
       <c r="C93">
-        <v>0.3036265272990737</v>
+        <v>-0.3208385349151556</v>
       </c>
       <c r="D93">
-        <v>-0.02243994206657406</v>
+        <v>-0.01091419037362982</v>
       </c>
       <c r="E93">
-        <v>0.02324921192563477</v>
+        <v>-0.0490248506119502</v>
       </c>
       <c r="F93">
-        <v>-0.04004953674957661</v>
+        <v>-0.0158647064518282</v>
       </c>
       <c r="G93">
-        <v>0.02440696075064658</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03799835368692391</v>
+      </c>
+      <c r="H93">
+        <v>0.01208367565163082</v>
+      </c>
+      <c r="I93">
+        <v>-0.03039799131155422</v>
+      </c>
+      <c r="J93">
+        <v>-0.01950633659449168</v>
+      </c>
+      <c r="K93">
+        <v>0.0205403336633307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09560518663896363</v>
+        <v>-0.1289415393795564</v>
       </c>
       <c r="C94">
-        <v>-0.04347635472635791</v>
+        <v>0.04933682139145718</v>
       </c>
       <c r="D94">
-        <v>0.01256809807114787</v>
+        <v>0.02915916537039195</v>
       </c>
       <c r="E94">
-        <v>-0.01700524348232429</v>
+        <v>0.0047911290438011</v>
       </c>
       <c r="F94">
-        <v>0.1404051281308275</v>
+        <v>-0.01517361071898946</v>
       </c>
       <c r="G94">
-        <v>0.0491369412859583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.01492288573485116</v>
+      </c>
+      <c r="H94">
+        <v>-0.08524061308733009</v>
+      </c>
+      <c r="I94">
+        <v>0.0406659205968537</v>
+      </c>
+      <c r="J94">
+        <v>0.1223863779999962</v>
+      </c>
+      <c r="K94">
+        <v>-0.04680765170159621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1307721832123561</v>
+        <v>-0.1219108398275384</v>
       </c>
       <c r="C95">
-        <v>-0.08014026979099451</v>
+        <v>0.05985443159137742</v>
       </c>
       <c r="D95">
-        <v>-0.07377102377814139</v>
+        <v>0.01631998287864601</v>
       </c>
       <c r="E95">
-        <v>0.06962872646376086</v>
+        <v>0.01745474683611285</v>
       </c>
       <c r="F95">
-        <v>-0.08545156834065366</v>
+        <v>-0.06194095976431808</v>
       </c>
       <c r="G95">
-        <v>-0.1085474285857533</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.007145706722945669</v>
+      </c>
+      <c r="H95">
+        <v>0.1208103776411859</v>
+      </c>
+      <c r="I95">
+        <v>-0.02407115997513078</v>
+      </c>
+      <c r="J95">
+        <v>-0.02036625427063748</v>
+      </c>
+      <c r="K95">
+        <v>0.06843944009709942</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009676266698482027</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0006475542295283314</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0004842401940267774</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.007429228275595301</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0006444598175777925</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.00683388084837471</v>
+      </c>
+      <c r="H96">
+        <v>0.02114668596158553</v>
+      </c>
+      <c r="I96">
+        <v>-0.01430804498433482</v>
+      </c>
+      <c r="J96">
+        <v>-0.01332588530974341</v>
+      </c>
+      <c r="K96">
+        <v>-0.02370435473153417</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.1752590678263998</v>
+        <v>-0.1797765820555171</v>
       </c>
       <c r="C97">
-        <v>0.08609023263222636</v>
+        <v>-0.003068277537683844</v>
       </c>
       <c r="D97">
-        <v>0.9149453168652952</v>
+        <v>0.1470631624701299</v>
       </c>
       <c r="E97">
-        <v>0.04302223193849047</v>
+        <v>0.3263143550696392</v>
       </c>
       <c r="F97">
-        <v>-0.04859548571223465</v>
+        <v>0.8734576028808609</v>
       </c>
       <c r="G97">
-        <v>-0.06699948555114721</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.05284336436236416</v>
+      </c>
+      <c r="H97">
+        <v>-0.09496396263221485</v>
+      </c>
+      <c r="I97">
+        <v>-0.10314578562934</v>
+      </c>
+      <c r="J97">
+        <v>-0.01115227747480018</v>
+      </c>
+      <c r="K97">
+        <v>0.06005693488203732</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3232701802906636</v>
+        <v>-0.2670268122834459</v>
       </c>
       <c r="C98">
-        <v>-0.05813878791544708</v>
+        <v>0.03126074565362603</v>
       </c>
       <c r="D98">
-        <v>-0.02919753815274783</v>
+        <v>-0.01204485840355205</v>
       </c>
       <c r="E98">
-        <v>-0.2350835472438704</v>
+        <v>0.01462548829365848</v>
       </c>
       <c r="F98">
-        <v>-0.1501463399220194</v>
+        <v>-0.04504666302977068</v>
       </c>
       <c r="G98">
-        <v>0.2793576115731081</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2126258039232626</v>
+      </c>
+      <c r="H98">
+        <v>-0.3086783030007129</v>
+      </c>
+      <c r="I98">
+        <v>0.2106167874710539</v>
+      </c>
+      <c r="J98">
+        <v>-0.2011207973678485</v>
+      </c>
+      <c r="K98">
+        <v>-0.04418604612591321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08772745356778075</v>
+        <v>-0.05286423407759575</v>
       </c>
       <c r="C99">
-        <v>-0.02305047483884505</v>
+        <v>0.008967763075257682</v>
       </c>
       <c r="D99">
-        <v>-0.01571196308889647</v>
+        <v>0.03197974319808376</v>
       </c>
       <c r="E99">
-        <v>-0.006661080153727936</v>
+        <v>0.009684655933348843</v>
       </c>
       <c r="F99">
-        <v>-0.009406622735312819</v>
+        <v>-0.02198955987265879</v>
       </c>
       <c r="G99">
-        <v>-0.02339037681530965</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.004948557537900805</v>
+      </c>
+      <c r="H99">
+        <v>0.005884911691893824</v>
+      </c>
+      <c r="I99">
+        <v>0.01456700719569196</v>
+      </c>
+      <c r="J99">
+        <v>-0.003251417828487077</v>
+      </c>
+      <c r="K99">
+        <v>-0.001411257798102871</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02368242781727423</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.0518882265391109</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.1582384109527863</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.04793524851253113</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03490967999834048</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.2351049464434546</v>
+      </c>
+      <c r="H100">
+        <v>-0.1285979673023132</v>
+      </c>
+      <c r="I100">
+        <v>0.4287028230187991</v>
+      </c>
+      <c r="J100">
+        <v>-0.2603991822646806</v>
+      </c>
+      <c r="K100">
+        <v>0.3278117200041044</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05895928793330007</v>
+        <v>-0.03839387488325071</v>
       </c>
       <c r="C101">
-        <v>-0.001796907829654279</v>
+        <v>0.008977919948875505</v>
       </c>
       <c r="D101">
-        <v>-0.03233140130646579</v>
+        <v>0.0006470263638239427</v>
       </c>
       <c r="E101">
-        <v>0.03965737306543421</v>
+        <v>-0.02233581956097216</v>
       </c>
       <c r="F101">
-        <v>0.02620389949115866</v>
+        <v>-0.01940840097860263</v>
       </c>
       <c r="G101">
-        <v>-0.04225318210087892</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.07549511732515511</v>
+      </c>
+      <c r="H101">
+        <v>0.04366345810439232</v>
+      </c>
+      <c r="I101">
+        <v>0.04331843549545368</v>
+      </c>
+      <c r="J101">
+        <v>0.01698915137496655</v>
+      </c>
+      <c r="K101">
+        <v>-0.07578636309936326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
